--- a/Bitacora/Bitacora_KevinCumbicus.xlsx
+++ b/Bitacora/Bitacora_KevinCumbicus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Curso\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3729B5CD-64C3-45D6-9165-BB46503B9D23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63E6196-4C66-48B8-8D77-C1988E78DB56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7695" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4590" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Fecha</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Instalación de configuración de Github Escritorio, creacion de cuenta Git, creación de repositorios y guia videos tutoriales cursos de Git, revision de canales de youtube como soporte para el desarrollo backend.</t>
+  </si>
+  <si>
+    <t>18/6/2022    16h00 - 19:30</t>
+  </si>
+  <si>
+    <t>Refuerzo de declaracion de variables, tipos de datos, conversión de datos, practica de suma de numeros, diferentes tipos de operadores, refuerzo de teoria con video tutoriales, instalacion de node js, refuerzo de html.</t>
+  </si>
+  <si>
+    <t>Refuerzo de JavaScript Básico Curso y Html</t>
   </si>
 </sst>
 </file>
@@ -171,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,6 +204,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -514,7 +526,7 @@
   <dimension ref="C2:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,321 +572,285 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="3:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="8"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="D56" s="8"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -890,18 +866,60 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora/Bitacora_KevinCumbicus.xlsx
+++ b/Bitacora/Bitacora_KevinCumbicus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Curso\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63E6196-4C66-48B8-8D77-C1988E78DB56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2370A56F-89F8-4C54-B72E-274C06C5208E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4590" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Fecha</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Refuerzo de JavaScript Básico Curso y Html</t>
+  </si>
+  <si>
+    <t>Refuerzo de JavaScript Estructuras de control</t>
+  </si>
+  <si>
+    <t>20/6/2022    16h00 - 19:50</t>
+  </si>
+  <si>
+    <t>Practicas de introduccion a javascript y refuerzo de estructuras de control, condicionales if, else, else if, switchs, temario, arrays, complementando con videos tutoriales de canales brindados de los recursos.</t>
   </si>
 </sst>
 </file>
@@ -200,13 +209,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -525,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +568,7 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -575,7 +584,7 @@
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -588,18 +597,24 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="3:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="6"/>
       <c r="D10" s="8"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -609,7 +624,7 @@
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -619,7 +634,7 @@
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -629,7 +644,7 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -639,7 +654,7 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -649,7 +664,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
-      <c r="D21" s="9"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -659,7 +674,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -669,7 +684,7 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
-      <c r="D25" s="9"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -679,7 +694,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
-      <c r="D27" s="9"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -689,7 +704,7 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
-      <c r="D29" s="9"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -699,7 +714,7 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -709,7 +724,7 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
-      <c r="D33" s="9"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -719,7 +734,7 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
-      <c r="D35" s="9"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -729,7 +744,7 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
-      <c r="D37" s="9"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -739,7 +754,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
-      <c r="D39" s="9"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -749,7 +764,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
-      <c r="D41" s="9"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -759,7 +774,7 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
-      <c r="D43" s="9"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -769,7 +784,7 @@
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="9"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -779,7 +794,7 @@
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
-      <c r="D47" s="9"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -789,7 +804,7 @@
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
-      <c r="D49" s="9"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -799,7 +814,7 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
-      <c r="D51" s="9"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -809,7 +824,7 @@
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
-      <c r="D53" s="9"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -819,7 +834,7 @@
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
-      <c r="D55" s="9"/>
+      <c r="D55" s="7"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -829,7 +844,7 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
-      <c r="D57" s="9"/>
+      <c r="D57" s="7"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -839,18 +854,60 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -866,60 +923,18 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora/Bitacora_KevinCumbicus.xlsx
+++ b/Bitacora/Bitacora_KevinCumbicus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Curso\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2370A56F-89F8-4C54-B72E-274C06C5208E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F891F15-ABAB-46A8-9DA8-9478636FB636}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4590" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Fecha</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Practicas de introduccion a javascript y refuerzo de estructuras de control, condicionales if, else, else if, switchs, temario, arrays, complementando con videos tutoriales de canales brindados de los recursos.</t>
+  </si>
+  <si>
+    <t>Refuerzo de JavaScript Estructuras de control Practicas, revision de diferentes canales de youtube como soporte del tema.</t>
+  </si>
+  <si>
+    <t>Refuerzo de estructuras de control, condicionales if, else, else if, switchs, temario, arrays, complementando con arrays, bucle for, while y practicas.</t>
   </si>
 </sst>
 </file>
@@ -209,13 +215,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -534,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +574,7 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -584,7 +590,7 @@
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -600,7 +606,7 @@
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -613,9 +619,15 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="6"/>
@@ -624,7 +636,7 @@
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -634,7 +646,7 @@
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -644,7 +656,7 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -654,7 +666,7 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -664,7 +676,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -674,7 +686,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -684,7 +696,7 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -694,7 +706,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
-      <c r="D27" s="7"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -704,7 +716,7 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
-      <c r="D29" s="7"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -714,7 +726,7 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
-      <c r="D31" s="7"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -724,7 +736,7 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
-      <c r="D33" s="7"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -734,7 +746,7 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
-      <c r="D35" s="7"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -744,7 +756,7 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
-      <c r="D37" s="7"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -754,7 +766,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
-      <c r="D39" s="7"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -764,7 +776,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
-      <c r="D41" s="7"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -774,7 +786,7 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
-      <c r="D43" s="7"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -784,7 +796,7 @@
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="7"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -794,7 +806,7 @@
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
-      <c r="D47" s="7"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -804,7 +816,7 @@
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
-      <c r="D49" s="7"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -814,7 +826,7 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
-      <c r="D51" s="7"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -824,7 +836,7 @@
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
-      <c r="D53" s="7"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -834,7 +846,7 @@
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
-      <c r="D55" s="7"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -844,7 +856,7 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
-      <c r="D57" s="7"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -854,60 +866,18 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -923,18 +893,60 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora/Bitacora_KevinCumbicus.xlsx
+++ b/Bitacora/Bitacora_KevinCumbicus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Curso\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F891F15-ABAB-46A8-9DA8-9478636FB636}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42662747-746C-4F16-B437-5B40EABC655B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4590" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Fecha</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Refuerzo de estructuras de control, condicionales if, else, else if, switchs, temario, arrays, complementando con arrays, bucle for, while y practicas.</t>
+  </si>
+  <si>
+    <t>Refuerzo de JavaScript Funciones, DOM</t>
+  </si>
+  <si>
+    <t>21/6/2022    16h00 - 19:30</t>
+  </si>
+  <si>
+    <t>Refuerzo acerca de las funciones con javascript, como definir una función, parametros, retornos de las funciones, argumentos, recursividad, metodos de cadenas, practicas, refuerzo teorico del maenjo de DOM con javascript y refuerzo con video tutoriales adicionales.</t>
   </si>
 </sst>
 </file>
@@ -215,13 +224,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +583,7 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -590,7 +599,7 @@
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -606,7 +615,7 @@
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -622,7 +631,7 @@
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -635,18 +644,24 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -656,7 +671,7 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -666,7 +681,7 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -676,7 +691,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
-      <c r="D21" s="9"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -686,7 +701,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -696,7 +711,7 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
-      <c r="D25" s="9"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -706,7 +721,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
-      <c r="D27" s="9"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -716,7 +731,7 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
-      <c r="D29" s="9"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -726,7 +741,7 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -736,7 +751,7 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
-      <c r="D33" s="9"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -746,7 +761,7 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
-      <c r="D35" s="9"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -756,7 +771,7 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
-      <c r="D37" s="9"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -766,7 +781,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
-      <c r="D39" s="9"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -776,7 +791,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
-      <c r="D41" s="9"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -786,7 +801,7 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
-      <c r="D43" s="9"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -796,7 +811,7 @@
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="9"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -806,7 +821,7 @@
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
-      <c r="D47" s="9"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -816,7 +831,7 @@
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
-      <c r="D49" s="9"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -826,7 +841,7 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
-      <c r="D51" s="9"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -836,7 +851,7 @@
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
-      <c r="D53" s="9"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -846,7 +861,7 @@
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
-      <c r="D55" s="9"/>
+      <c r="D55" s="7"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -856,7 +871,7 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
-      <c r="D57" s="9"/>
+      <c r="D57" s="7"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -866,18 +881,60 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -893,60 +950,18 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora/Bitacora_KevinCumbicus.xlsx
+++ b/Bitacora/Bitacora_KevinCumbicus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Curso\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42662747-746C-4F16-B437-5B40EABC655B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD630B00-330F-48FA-84DF-1B20F6DE787F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4590" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Fecha</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Refuerzo acerca de las funciones con javascript, como definir una función, parametros, retornos de las funciones, argumentos, recursividad, metodos de cadenas, practicas, refuerzo teorico del maenjo de DOM con javascript y refuerzo con video tutoriales adicionales.</t>
+  </si>
+  <si>
+    <t>22/6/2022    16h00 - 19:30</t>
+  </si>
+  <si>
+    <t>Refuerzo de JavaScript Manipulaci[on del DOM</t>
+  </si>
+  <si>
+    <t>Refuerzo teorico del maenjo de DOM con javascript, desde la manipulación, funciones lógicas, patrón modular, eventos para el index.html, minifiación del código y refuerzo con video tutoriales adicionales.</t>
   </si>
 </sst>
 </file>
@@ -224,13 +233,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -550,7 +559,7 @@
   <dimension ref="C2:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +592,7 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -599,7 +608,7 @@
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -615,7 +624,7 @@
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -631,7 +640,7 @@
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -647,7 +656,7 @@
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -660,18 +669,24 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="6"/>
       <c r="D16" s="8"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -681,7 +696,7 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -691,7 +706,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -701,7 +716,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -711,7 +726,7 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -721,7 +736,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
-      <c r="D27" s="7"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -731,7 +746,7 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
-      <c r="D29" s="7"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -741,7 +756,7 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
-      <c r="D31" s="7"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -751,7 +766,7 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
-      <c r="D33" s="7"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -761,7 +776,7 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
-      <c r="D35" s="7"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -771,7 +786,7 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
-      <c r="D37" s="7"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -781,7 +796,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
-      <c r="D39" s="7"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -791,7 +806,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
-      <c r="D41" s="7"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -801,7 +816,7 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
-      <c r="D43" s="7"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -811,7 +826,7 @@
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="7"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -821,7 +836,7 @@
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
-      <c r="D47" s="7"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -831,7 +846,7 @@
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
-      <c r="D49" s="7"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -841,7 +856,7 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
-      <c r="D51" s="7"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -851,7 +866,7 @@
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
-      <c r="D53" s="7"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -861,7 +876,7 @@
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
-      <c r="D55" s="7"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -871,7 +886,7 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
-      <c r="D57" s="7"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -881,60 +896,18 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -950,18 +923,60 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora/Bitacora_KevinCumbicus.xlsx
+++ b/Bitacora/Bitacora_KevinCumbicus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Curso\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD630B00-330F-48FA-84DF-1B20F6DE787F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1002F25F-513D-49ED-8E65-439485C8BBB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4590" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Fecha</t>
   </si>
@@ -84,10 +84,19 @@
     <t>22/6/2022    16h00 - 19:30</t>
   </si>
   <si>
-    <t>Refuerzo de JavaScript Manipulaci[on del DOM</t>
-  </si>
-  <si>
-    <t>Refuerzo teorico del maenjo de DOM con javascript, desde la manipulación, funciones lógicas, patrón modular, eventos para el index.html, minifiación del código y refuerzo con video tutoriales adicionales.</t>
+    <t>25/6/2022    16h00 - 19:50</t>
+  </si>
+  <si>
+    <t>Refuerzo de JavaScript Manipulacion del DOM</t>
+  </si>
+  <si>
+    <t>Refuerzo de JavaScript POO</t>
+  </si>
+  <si>
+    <t>Refuerzo teorico del manejo de DOM con javascript, desde la manipulación, funciones lógicas, patrón modular, eventos para el index.html, minifiación del código y refuerzo con video tutoriales adicionales.</t>
+  </si>
+  <si>
+    <t>Refuerzo teorico y practico de Programación orientada a objetos, clases como funciones, clases como objetos, objetos literales, encapsulamiento, herencia, variables estaticas, privadas y publicas, refuerzo con video tutoriales adicionales.</t>
   </si>
 </sst>
 </file>
@@ -233,13 +242,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,7 +568,7 @@
   <dimension ref="C2:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C18"/>
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +601,7 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -608,7 +617,7 @@
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -624,7 +633,7 @@
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -640,7 +649,7 @@
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -656,7 +665,7 @@
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -670,13 +679,13 @@
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -685,18 +694,24 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="3:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="6"/>
       <c r="D18" s="8"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -706,7 +721,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
-      <c r="D21" s="9"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -716,7 +731,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -726,7 +741,7 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
-      <c r="D25" s="9"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -736,7 +751,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
-      <c r="D27" s="9"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -746,7 +761,7 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
-      <c r="D29" s="9"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -756,7 +771,7 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -766,7 +781,7 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
-      <c r="D33" s="9"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -776,7 +791,7 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
-      <c r="D35" s="9"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -786,7 +801,7 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
-      <c r="D37" s="9"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -796,7 +811,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
-      <c r="D39" s="9"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -806,7 +821,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
-      <c r="D41" s="9"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -816,7 +831,7 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
-      <c r="D43" s="9"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -826,7 +841,7 @@
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="9"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -836,7 +851,7 @@
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
-      <c r="D47" s="9"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -846,7 +861,7 @@
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
-      <c r="D49" s="9"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -856,7 +871,7 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
-      <c r="D51" s="9"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -866,7 +881,7 @@
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
-      <c r="D53" s="9"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -876,7 +891,7 @@
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
-      <c r="D55" s="9"/>
+      <c r="D55" s="7"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -886,7 +901,7 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
-      <c r="D57" s="9"/>
+      <c r="D57" s="7"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -896,18 +911,60 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -923,60 +980,18 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora/Bitacora_KevinCumbicus.xlsx
+++ b/Bitacora/Bitacora_KevinCumbicus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Curso\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1002F25F-513D-49ED-8E65-439485C8BBB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381F00CF-C0FA-4D6D-AA52-B2A366F8190A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4590" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Fecha</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Refuerzo de JavaScript Funciones, DOM</t>
   </si>
   <si>
-    <t>21/6/2022    16h00 - 19:30</t>
-  </si>
-  <si>
     <t>Refuerzo acerca de las funciones con javascript, como definir una función, parametros, retornos de las funciones, argumentos, recursividad, metodos de cadenas, practicas, refuerzo teorico del maenjo de DOM con javascript y refuerzo con video tutoriales adicionales.</t>
   </si>
   <si>
@@ -97,6 +94,12 @@
   </si>
   <si>
     <t>Refuerzo teorico y practico de Programación orientada a objetos, clases como funciones, clases como objetos, objetos literales, encapsulamiento, herencia, variables estaticas, privadas y publicas, refuerzo con video tutoriales adicionales.</t>
+  </si>
+  <si>
+    <t>21/6/2022    16h00 - 19:50</t>
+  </si>
+  <si>
+    <t>23/6/2022    16h00 - 19:30</t>
   </si>
 </sst>
 </file>
@@ -242,13 +245,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -567,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452DAB7-0726-4DA6-A9FD-B8609C601486}">
   <dimension ref="C2:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +604,7 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -617,7 +620,7 @@
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -633,7 +636,7 @@
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -649,8 +652,8 @@
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>11</v>
+      <c r="D11" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -665,11 +668,11 @@
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -679,13 +682,13 @@
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -695,13 +698,13 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -711,7 +714,7 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -721,7 +724,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -731,7 +734,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -741,7 +744,7 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -751,7 +754,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
-      <c r="D27" s="7"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -761,7 +764,7 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
-      <c r="D29" s="7"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -771,7 +774,7 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
-      <c r="D31" s="7"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -781,7 +784,7 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
-      <c r="D33" s="7"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -791,7 +794,7 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
-      <c r="D35" s="7"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -801,7 +804,7 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
-      <c r="D37" s="7"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -811,7 +814,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
-      <c r="D39" s="7"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -821,7 +824,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
-      <c r="D41" s="7"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -831,7 +834,7 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
-      <c r="D43" s="7"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -841,7 +844,7 @@
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="7"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -851,7 +854,7 @@
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
-      <c r="D47" s="7"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -861,7 +864,7 @@
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
-      <c r="D49" s="7"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -871,7 +874,7 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
-      <c r="D51" s="7"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -881,7 +884,7 @@
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
-      <c r="D53" s="7"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -891,7 +894,7 @@
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
-      <c r="D55" s="7"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -901,7 +904,7 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
-      <c r="D57" s="7"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -911,60 +914,18 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -980,18 +941,60 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora/Bitacora_KevinCumbicus.xlsx
+++ b/Bitacora/Bitacora_KevinCumbicus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Curso\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381F00CF-C0FA-4D6D-AA52-B2A366F8190A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07765514-5B0B-4865-82B5-9EB497EFD3E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4590" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Fecha</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>23/6/2022    16h00 - 19:30</t>
+  </si>
+  <si>
+    <t>27/6/2022    16h00 - 19:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de Webpack </t>
+  </si>
+  <si>
+    <t>Uso de la herramienta Webpack para el empaquetado de proyectos web para ambientes de desarrollo y produccion, se analizo, la modularizacion y empaquetación, plugins, servidor de webpack, loaders de css, html, js, módulos y babel.</t>
   </si>
 </sst>
 </file>
@@ -245,13 +254,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -571,7 +580,7 @@
   <dimension ref="C2:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +613,7 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -620,7 +629,7 @@
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -636,7 +645,7 @@
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -652,7 +661,7 @@
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -668,7 +677,7 @@
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -684,7 +693,7 @@
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -700,7 +709,7 @@
       <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -713,18 +722,24 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="3:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="6"/>
       <c r="D20" s="8"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
-      <c r="D21" s="9"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -734,7 +749,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -744,7 +759,7 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
-      <c r="D25" s="9"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -754,7 +769,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
-      <c r="D27" s="9"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -764,7 +779,7 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
-      <c r="D29" s="9"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -774,7 +789,7 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -784,7 +799,7 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
-      <c r="D33" s="9"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -794,7 +809,7 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
-      <c r="D35" s="9"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -804,7 +819,7 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
-      <c r="D37" s="9"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -814,7 +829,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
-      <c r="D39" s="9"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -824,7 +839,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
-      <c r="D41" s="9"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -834,7 +849,7 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
-      <c r="D43" s="9"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -844,7 +859,7 @@
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="9"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -854,7 +869,7 @@
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
-      <c r="D47" s="9"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -864,7 +879,7 @@
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
-      <c r="D49" s="9"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -874,7 +889,7 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
-      <c r="D51" s="9"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -884,7 +899,7 @@
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
-      <c r="D53" s="9"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -894,7 +909,7 @@
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
-      <c r="D55" s="9"/>
+      <c r="D55" s="7"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -904,7 +919,7 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
-      <c r="D57" s="9"/>
+      <c r="D57" s="7"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -914,18 +929,60 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -941,60 +998,18 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bitacora/Bitacora_KevinCumbicus.xlsx
+++ b/Bitacora/Bitacora_KevinCumbicus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Curso\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07765514-5B0B-4865-82B5-9EB497EFD3E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D17F3F-840B-4505-9BF5-AF01432A1C0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4590" xr2:uid="{5F60A4A5-F201-4BBE-B609-D8E3E8F91B78}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Fecha</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Uso de la herramienta Webpack para el empaquetado de proyectos web para ambientes de desarrollo y produccion, se analizo, la modularizacion y empaquetación, plugins, servidor de webpack, loaders de css, html, js, módulos y babel.</t>
+  </si>
+  <si>
+    <t>28/6/2022    16h00 - 19:30</t>
+  </si>
+  <si>
+    <t>Uso de Express y configuracion de ambiente de trabajo previo para Python</t>
+  </si>
+  <si>
+    <t>Uso de la herramienta Express para el backen, como crear un proyecto, configuración de base de datos en mongoDB, conexiones en el codigo con la base de datos, modularizacion de la aplicación, crud para el modelo user, preparación de ambiente de trabajo para Python.</t>
   </si>
 </sst>
 </file>
@@ -254,13 +263,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -580,7 +589,7 @@
   <dimension ref="C2:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +622,7 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -629,7 +638,7 @@
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -645,7 +654,7 @@
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -661,7 +670,7 @@
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -677,7 +686,7 @@
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -693,7 +702,7 @@
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -709,7 +718,7 @@
       <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -725,7 +734,7 @@
       <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -738,18 +747,24 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="3:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6"/>
       <c r="D22" s="8"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -759,7 +774,7 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -769,7 +784,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
-      <c r="D27" s="7"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -779,7 +794,7 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
-      <c r="D29" s="7"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -789,7 +804,7 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
-      <c r="D31" s="7"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -799,7 +814,7 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
-      <c r="D33" s="7"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -809,7 +824,7 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
-      <c r="D35" s="7"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -819,7 +834,7 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
-      <c r="D37" s="7"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -829,7 +844,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
-      <c r="D39" s="7"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -839,7 +854,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
-      <c r="D41" s="7"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -849,7 +864,7 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
-      <c r="D43" s="7"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -859,7 +874,7 @@
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="7"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,7 +884,7 @@
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
-      <c r="D47" s="7"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -879,7 +894,7 @@
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
-      <c r="D49" s="7"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -889,7 +904,7 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
-      <c r="D51" s="7"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -899,7 +914,7 @@
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
-      <c r="D53" s="7"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -909,7 +924,7 @@
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
-      <c r="D55" s="7"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -919,7 +934,7 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
-      <c r="D57" s="7"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -929,60 +944,18 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
@@ -998,18 +971,60 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
